--- a/Foundation/egovframework.rte.fdl.excel/testdata/testWriteExcelFileAttribute.xlsx
+++ b/Foundation/egovframework.rte.fdl.excel/testdata/testWriteExcelFileAttribute.xlsx
@@ -77,13 +77,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.0" customHeight="true" baseColWidth="30"/>
   <cols>
-    <col min="1" max="1" style="1"/>
+    <col min="1" max="1" style="1" width="30.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
